--- a/readme/Decisions.xlsx
+++ b/readme/Decisions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.Medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6D33A-8C29-4C5F-9439-711CBD9BB4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2AEB5-6919-4CD6-96BB-2125CD0616EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7BD85-0B31-4842-A1FA-5FC6C6D2E822}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="G119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34:M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/readme/Decisions.xlsx
+++ b/readme/Decisions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.Medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2AEB5-6919-4CD6-96BB-2125CD0616EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFE764-567F-4D7E-80FB-994AB9E2E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
+    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="180">
   <si>
     <t>Question</t>
   </si>
@@ -567,13 +567,22 @@
   </si>
   <si>
     <t>interest-activity-last_occurrance-multiple_activity-multiple_propositions</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Number Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,13 +961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7BD85-0B31-4842-A1FA-5FC6C6D2E822}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:M119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
@@ -973,9 +982,10 @@
     <col min="11" max="11" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,21 +1025,31 @@
       <c r="M1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3">
+        <f>COUNTIF(N:N,"done")</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>1.2</v>
       </c>
@@ -1037,12 +1057,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1050,12 +1070,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1063,12 +1083,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1078,8 +1098,11 @@
       <c r="M10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1089,8 +1112,11 @@
       <c r="M11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1098,12 +1124,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1113,8 +1139,11 @@
       <c r="M14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1124,8 +1153,11 @@
       <c r="M15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1133,12 +1165,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14">
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14">
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1148,8 +1180,11 @@
       <c r="M18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1194,11 @@
       <c r="M19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1170,8 +1208,11 @@
       <c r="M20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
       <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1181,8 +1222,11 @@
       <c r="M21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,12 +1234,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14">
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14">
       <c r="G24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1205,8 +1249,11 @@
       <c r="M24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1216,8 +1263,11 @@
       <c r="M25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1227,8 +1277,11 @@
       <c r="M26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="G27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1238,8 +1291,11 @@
       <c r="M27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,12 +1303,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14">
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14">
       <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1260,12 +1316,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14">
       <c r="G31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14">
       <c r="G32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1273,12 +1329,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14">
       <c r="I33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:14">
       <c r="I34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1288,8 +1344,11 @@
       <c r="M34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14">
       <c r="I35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1297,12 +1356,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:14">
       <c r="K36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:14">
       <c r="K37" s="1" t="s">
         <v>55</v>
       </c>
@@ -1312,8 +1371,11 @@
       <c r="M37" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14">
       <c r="K38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1323,8 +1385,11 @@
       <c r="M38" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="7:14">
       <c r="K39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1334,8 +1399,11 @@
       <c r="M39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="40" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="7:14">
       <c r="I40" s="1" t="s">
         <v>50</v>
       </c>
@@ -1345,8 +1413,11 @@
       <c r="M40" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="41" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14">
       <c r="I41" s="1" t="s">
         <v>51</v>
       </c>
@@ -1354,12 +1425,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:14">
       <c r="K42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:14">
       <c r="K43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1369,8 +1440,11 @@
       <c r="M43" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="7:14">
       <c r="K44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1380,8 +1454,11 @@
       <c r="M44" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="7:14">
       <c r="K45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1391,8 +1468,11 @@
       <c r="M45" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="7:14">
       <c r="G46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1400,12 +1480,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:14">
       <c r="I47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:14">
       <c r="I48" s="1" t="s">
         <v>63</v>
       </c>
@@ -1415,8 +1495,11 @@
       <c r="M48" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14">
       <c r="I49" s="1" t="s">
         <v>64</v>
       </c>
@@ -1424,12 +1507,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:14">
       <c r="K50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:14">
       <c r="K51" s="1" t="s">
         <v>67</v>
       </c>
@@ -1439,8 +1522,11 @@
       <c r="M51" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14">
       <c r="K52" s="1" t="s">
         <v>68</v>
       </c>
@@ -1450,8 +1536,11 @@
       <c r="M52" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14">
       <c r="K53" s="1" t="s">
         <v>69</v>
       </c>
@@ -1461,8 +1550,11 @@
       <c r="M53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14">
       <c r="I54" s="1" t="s">
         <v>65</v>
       </c>
@@ -1472,8 +1564,11 @@
       <c r="M54" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14">
       <c r="I55" s="1" t="s">
         <v>66</v>
       </c>
@@ -1481,12 +1576,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:14">
       <c r="K56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:14">
       <c r="K57" s="1" t="s">
         <v>70</v>
       </c>
@@ -1496,8 +1591,11 @@
       <c r="M57" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14">
       <c r="K58" s="1" t="s">
         <v>71</v>
       </c>
@@ -1507,8 +1605,11 @@
       <c r="M58" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14">
       <c r="K59" s="1" t="s">
         <v>72</v>
       </c>
@@ -1518,8 +1619,11 @@
       <c r="M59" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14">
       <c r="E60" s="1" t="s">
         <v>39</v>
       </c>
@@ -1527,12 +1631,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:14">
       <c r="G61" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:14">
       <c r="G62" s="1" t="s">
         <v>73</v>
       </c>
@@ -1540,12 +1644,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:14">
       <c r="I63" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:14">
       <c r="I64" s="1" t="s">
         <v>75</v>
       </c>
@@ -1555,8 +1659,11 @@
       <c r="M64" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14">
       <c r="I65" s="1" t="s">
         <v>76</v>
       </c>
@@ -1564,12 +1671,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:14">
       <c r="K66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:14">
       <c r="K67" s="1" t="s">
         <v>83</v>
       </c>
@@ -1579,8 +1686,11 @@
       <c r="M67" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="7:14">
       <c r="K68" s="1" t="s">
         <v>84</v>
       </c>
@@ -1590,8 +1700,11 @@
       <c r="M68" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="7:14">
       <c r="K69" s="1" t="s">
         <v>85</v>
       </c>
@@ -1601,8 +1714,11 @@
       <c r="M69" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="70" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="7:14">
       <c r="I70" s="1" t="s">
         <v>77</v>
       </c>
@@ -1612,8 +1728,11 @@
       <c r="M70" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="71" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="7:14">
       <c r="I71" s="1" t="s">
         <v>78</v>
       </c>
@@ -1621,12 +1740,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:14">
       <c r="K72" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:14">
       <c r="K73" s="1" t="s">
         <v>86</v>
       </c>
@@ -1636,8 +1755,11 @@
       <c r="M73" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="7:14">
       <c r="K74" s="1" t="s">
         <v>87</v>
       </c>
@@ -1647,8 +1769,11 @@
       <c r="M74" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="7:14">
       <c r="K75" s="1" t="s">
         <v>88</v>
       </c>
@@ -1658,8 +1783,11 @@
       <c r="M75" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="7:14">
       <c r="G76" s="1" t="s">
         <v>74</v>
       </c>
@@ -1667,12 +1795,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:14">
       <c r="I77" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:14">
       <c r="I78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1682,8 +1810,11 @@
       <c r="M78" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="79" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="7:14">
       <c r="I79" s="1" t="s">
         <v>80</v>
       </c>
@@ -1691,12 +1822,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:14">
       <c r="K80" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:14">
       <c r="K81" s="1" t="s">
         <v>89</v>
       </c>
@@ -1706,8 +1837,11 @@
       <c r="M81" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="5:14">
       <c r="K82" s="1" t="s">
         <v>90</v>
       </c>
@@ -1717,8 +1851,11 @@
       <c r="M82" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="5:14">
       <c r="K83" s="1" t="s">
         <v>91</v>
       </c>
@@ -1728,8 +1865,11 @@
       <c r="M83" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="5:14">
       <c r="I84" s="1" t="s">
         <v>81</v>
       </c>
@@ -1739,8 +1879,11 @@
       <c r="M84" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="5:14">
       <c r="I85" s="1" t="s">
         <v>82</v>
       </c>
@@ -1748,12 +1891,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:14">
       <c r="K86" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:14">
       <c r="K87" s="1" t="s">
         <v>92</v>
       </c>
@@ -1763,8 +1906,11 @@
       <c r="M87" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="5:14">
       <c r="K88" s="1" t="s">
         <v>93</v>
       </c>
@@ -1774,8 +1920,11 @@
       <c r="M88" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="5:14">
       <c r="K89" s="1" t="s">
         <v>94</v>
       </c>
@@ -1785,8 +1934,11 @@
       <c r="M89" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="5:14">
       <c r="E90" s="1" t="s">
         <v>40</v>
       </c>
@@ -1794,12 +1946,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:14">
       <c r="G91" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:14">
       <c r="G92" s="1" t="s">
         <v>95</v>
       </c>
@@ -1807,12 +1959,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:14">
       <c r="I93" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:14">
       <c r="I94" s="1" t="s">
         <v>96</v>
       </c>
@@ -1822,8 +1974,11 @@
       <c r="M94" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="5:14">
       <c r="I95" s="1" t="s">
         <v>97</v>
       </c>
@@ -1831,12 +1986,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:14">
       <c r="K96" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:14">
       <c r="K97" s="1" t="s">
         <v>98</v>
       </c>
@@ -1846,8 +2001,11 @@
       <c r="M97" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="7:14">
       <c r="K98" s="1" t="s">
         <v>99</v>
       </c>
@@ -1857,8 +2015,11 @@
       <c r="M98" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="99" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="7:14">
       <c r="K99" s="1" t="s">
         <v>100</v>
       </c>
@@ -1868,8 +2029,11 @@
       <c r="M99" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="100" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="7:14">
       <c r="I100" s="1" t="s">
         <v>101</v>
       </c>
@@ -1879,8 +2043,11 @@
       <c r="M100" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="101" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="7:14">
       <c r="I101" s="1" t="s">
         <v>102</v>
       </c>
@@ -1888,12 +2055,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:14">
       <c r="K102" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:14">
       <c r="K103" s="1" t="s">
         <v>103</v>
       </c>
@@ -1903,8 +2070,11 @@
       <c r="M103" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="104" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="7:14">
       <c r="K104" s="1" t="s">
         <v>104</v>
       </c>
@@ -1914,8 +2084,11 @@
       <c r="M104" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="105" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="7:14">
       <c r="K105" s="1" t="s">
         <v>105</v>
       </c>
@@ -1925,8 +2098,11 @@
       <c r="M105" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="106" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="7:14">
       <c r="G106" s="1" t="s">
         <v>106</v>
       </c>
@@ -1934,12 +2110,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:14">
       <c r="I107" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:14">
       <c r="I108" s="1" t="s">
         <v>107</v>
       </c>
@@ -1949,8 +2125,11 @@
       <c r="M108" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="109" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="7:14">
       <c r="I109" s="1" t="s">
         <v>108</v>
       </c>
@@ -1958,12 +2137,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:14">
       <c r="K110" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:14">
       <c r="K111" s="1" t="s">
         <v>109</v>
       </c>
@@ -1973,8 +2152,11 @@
       <c r="M111" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="112" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="7:14">
       <c r="K112" s="1" t="s">
         <v>110</v>
       </c>
@@ -1984,8 +2166,11 @@
       <c r="M112" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="113" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="9:14">
       <c r="K113" s="1" t="s">
         <v>111</v>
       </c>
@@ -1995,8 +2180,11 @@
       <c r="M113" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="114" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="9:14">
       <c r="I114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2006,8 +2194,11 @@
       <c r="M114" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="115" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="9:14">
       <c r="I115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2015,12 +2206,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:14">
       <c r="K116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:14">
       <c r="K117" s="1" t="s">
         <v>114</v>
       </c>
@@ -2030,8 +2221,11 @@
       <c r="M117" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="118" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="9:14">
       <c r="K118" s="1" t="s">
         <v>115</v>
       </c>
@@ -2041,8 +2235,11 @@
       <c r="M118" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="119" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="9:14">
       <c r="K119" s="1" t="s">
         <v>116</v>
       </c>
@@ -2051,6 +2248,9 @@
       </c>
       <c r="M119" t="s">
         <v>170</v>
+      </c>
+      <c r="N119" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/readme/Decisions.xlsx
+++ b/readme/Decisions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.Medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFE764-567F-4D7E-80FB-994AB9E2E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBDDCA0-A625-4E49-BECC-FB05146716B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="181">
   <si>
     <t>Question</t>
   </si>
@@ -569,13 +569,16 @@
     <t>interest-activity-last_occurrance-multiple_activity-multiple_propositions</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
     <t>Number Done</t>
+  </si>
+  <si>
+    <t>Readme</t>
+  </si>
+  <si>
+    <t>JSON</t>
   </si>
 </sst>
 </file>
@@ -963,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7BD85-0B31-4842-A1FA-5FC6C6D2E822}">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1026,7 +1029,10 @@
         <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="O1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1042,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R3">
         <f>COUNTIF(N:N,"done")</f>
@@ -1099,7 +1105,10 @@
         <v>117</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="O10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1113,7 +1122,10 @@
         <v>118</v>
       </c>
       <c r="N11" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="O11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1140,7 +1152,10 @@
         <v>119</v>
       </c>
       <c r="N14" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="O14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1154,7 +1169,10 @@
         <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="O15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1165,12 +1183,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:15">
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:15">
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1181,10 +1199,13 @@
         <v>121</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1195,10 +1216,13 @@
         <v>128</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1209,10 +1233,13 @@
         <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1223,10 +1250,13 @@
         <v>123</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1234,12 +1264,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:15">
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:15">
       <c r="G24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1250,10 +1280,13 @@
         <v>124</v>
       </c>
       <c r="N24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1264,10 +1297,13 @@
         <v>125</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1278,10 +1314,13 @@
         <v>126</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="G27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1292,10 +1331,13 @@
         <v>127</v>
       </c>
       <c r="N27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14">
+        <v>177</v>
+      </c>
+      <c r="O27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,12 +1345,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:15">
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:15">
       <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1316,12 +1358,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:15">
       <c r="G31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:15">
       <c r="G32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1329,12 +1371,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="7:14">
+    <row r="33" spans="7:15">
       <c r="I33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="7:14">
+    <row r="34" spans="7:15">
       <c r="I34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1345,10 +1387,13 @@
         <v>129</v>
       </c>
       <c r="N34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15">
       <c r="I35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1356,12 +1401,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="7:14">
+    <row r="36" spans="7:15">
       <c r="K36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="7:14">
+    <row r="37" spans="7:15">
       <c r="K37" s="1" t="s">
         <v>55</v>
       </c>
@@ -1372,10 +1417,13 @@
         <v>130</v>
       </c>
       <c r="N37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15">
       <c r="K38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1386,10 +1434,13 @@
         <v>131</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="7:15">
       <c r="K39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1400,10 +1451,13 @@
         <v>132</v>
       </c>
       <c r="N39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="7:15">
       <c r="I40" s="1" t="s">
         <v>50</v>
       </c>
@@ -1414,10 +1468,13 @@
         <v>171</v>
       </c>
       <c r="N40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="7:15">
       <c r="I41" s="1" t="s">
         <v>51</v>
       </c>
@@ -1425,12 +1482,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="7:14">
+    <row r="42" spans="7:15">
       <c r="K42" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="7:14">
+    <row r="43" spans="7:15">
       <c r="K43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1441,10 +1498,13 @@
         <v>133</v>
       </c>
       <c r="N43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15">
       <c r="K44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1455,10 +1515,13 @@
         <v>134</v>
       </c>
       <c r="N44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="7:15">
       <c r="K45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1469,10 +1532,13 @@
         <v>135</v>
       </c>
       <c r="N45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="7:15">
       <c r="G46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1480,12 +1546,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="7:14">
+    <row r="47" spans="7:15">
       <c r="I47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="7:14">
+    <row r="48" spans="7:15">
       <c r="I48" s="1" t="s">
         <v>63</v>
       </c>
@@ -1496,10 +1562,13 @@
         <v>136</v>
       </c>
       <c r="N48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15">
       <c r="I49" s="1" t="s">
         <v>64</v>
       </c>
@@ -1507,12 +1576,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="5:14">
+    <row r="50" spans="5:15">
       <c r="K50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="5:14">
+    <row r="51" spans="5:15">
       <c r="K51" s="1" t="s">
         <v>67</v>
       </c>
@@ -1523,10 +1592,13 @@
         <v>137</v>
       </c>
       <c r="N51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15">
       <c r="K52" s="1" t="s">
         <v>68</v>
       </c>
@@ -1537,10 +1609,13 @@
         <v>138</v>
       </c>
       <c r="N52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15">
       <c r="K53" s="1" t="s">
         <v>69</v>
       </c>
@@ -1551,10 +1626,13 @@
         <v>139</v>
       </c>
       <c r="N53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15">
       <c r="I54" s="1" t="s">
         <v>65</v>
       </c>
@@ -1565,10 +1643,13 @@
         <v>172</v>
       </c>
       <c r="N54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15">
       <c r="I55" s="1" t="s">
         <v>66</v>
       </c>
@@ -1576,12 +1657,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="5:14">
+    <row r="56" spans="5:15">
       <c r="K56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="5:14">
+    <row r="57" spans="5:15">
       <c r="K57" s="1" t="s">
         <v>70</v>
       </c>
@@ -1592,10 +1673,13 @@
         <v>140</v>
       </c>
       <c r="N57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15">
       <c r="K58" s="1" t="s">
         <v>71</v>
       </c>
@@ -1606,10 +1690,13 @@
         <v>141</v>
       </c>
       <c r="N58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15">
       <c r="K59" s="1" t="s">
         <v>72</v>
       </c>
@@ -1620,10 +1707,13 @@
         <v>142</v>
       </c>
       <c r="N59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15">
       <c r="E60" s="1" t="s">
         <v>39</v>
       </c>
@@ -1631,12 +1721,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="5:14">
+    <row r="61" spans="5:15">
       <c r="G61" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="5:14">
+    <row r="62" spans="5:15">
       <c r="G62" s="1" t="s">
         <v>73</v>
       </c>
@@ -1644,12 +1734,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="5:14">
+    <row r="63" spans="5:15">
       <c r="I63" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="5:14">
+    <row r="64" spans="5:15">
       <c r="I64" s="1" t="s">
         <v>75</v>
       </c>
@@ -1660,10 +1750,13 @@
         <v>143</v>
       </c>
       <c r="N64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="7:15">
       <c r="I65" s="1" t="s">
         <v>76</v>
       </c>
@@ -1671,12 +1764,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="7:14">
+    <row r="66" spans="7:15">
       <c r="K66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="7:14">
+    <row r="67" spans="7:15">
       <c r="K67" s="1" t="s">
         <v>83</v>
       </c>
@@ -1687,10 +1780,13 @@
         <v>144</v>
       </c>
       <c r="N67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="7:15">
       <c r="K68" s="1" t="s">
         <v>84</v>
       </c>
@@ -1701,10 +1797,13 @@
         <v>145</v>
       </c>
       <c r="N68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="7:15">
       <c r="K69" s="1" t="s">
         <v>85</v>
       </c>
@@ -1715,10 +1814,13 @@
         <v>146</v>
       </c>
       <c r="N69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="7:15">
       <c r="I70" s="1" t="s">
         <v>77</v>
       </c>
@@ -1729,10 +1831,13 @@
         <v>173</v>
       </c>
       <c r="N70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="7:15">
       <c r="I71" s="1" t="s">
         <v>78</v>
       </c>
@@ -1740,12 +1845,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="7:14">
+    <row r="72" spans="7:15">
       <c r="K72" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="7:14">
+    <row r="73" spans="7:15">
       <c r="K73" s="1" t="s">
         <v>86</v>
       </c>
@@ -1756,10 +1861,13 @@
         <v>147</v>
       </c>
       <c r="N73" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="7:15">
       <c r="K74" s="1" t="s">
         <v>87</v>
       </c>
@@ -1770,10 +1878,13 @@
         <v>148</v>
       </c>
       <c r="N74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="7:15">
       <c r="K75" s="1" t="s">
         <v>88</v>
       </c>
@@ -1784,10 +1895,13 @@
         <v>149</v>
       </c>
       <c r="N75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="7:15">
       <c r="G76" s="1" t="s">
         <v>74</v>
       </c>
@@ -1795,12 +1909,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="7:14">
+    <row r="77" spans="7:15">
       <c r="I77" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="7:14">
+    <row r="78" spans="7:15">
       <c r="I78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1811,10 +1925,13 @@
         <v>150</v>
       </c>
       <c r="N78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="7:15">
       <c r="I79" s="1" t="s">
         <v>80</v>
       </c>
@@ -1822,12 +1939,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="7:14">
+    <row r="80" spans="7:15">
       <c r="K80" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="5:14">
+    <row r="81" spans="5:15">
       <c r="K81" s="1" t="s">
         <v>89</v>
       </c>
@@ -1838,10 +1955,13 @@
         <v>151</v>
       </c>
       <c r="N81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="5:15">
       <c r="K82" s="1" t="s">
         <v>90</v>
       </c>
@@ -1852,10 +1972,13 @@
         <v>152</v>
       </c>
       <c r="N82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="5:15">
       <c r="K83" s="1" t="s">
         <v>91</v>
       </c>
@@ -1866,10 +1989,13 @@
         <v>153</v>
       </c>
       <c r="N83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="5:15">
       <c r="I84" s="1" t="s">
         <v>81</v>
       </c>
@@ -1880,10 +2006,13 @@
         <v>174</v>
       </c>
       <c r="N84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="5:15">
       <c r="I85" s="1" t="s">
         <v>82</v>
       </c>
@@ -1891,12 +2020,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="5:14">
+    <row r="86" spans="5:15">
       <c r="K86" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="5:14">
+    <row r="87" spans="5:15">
       <c r="K87" s="1" t="s">
         <v>92</v>
       </c>
@@ -1907,10 +2036,13 @@
         <v>154</v>
       </c>
       <c r="N87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="5:15">
       <c r="K88" s="1" t="s">
         <v>93</v>
       </c>
@@ -1921,10 +2053,13 @@
         <v>155</v>
       </c>
       <c r="N88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="5:15">
       <c r="K89" s="1" t="s">
         <v>94</v>
       </c>
@@ -1935,10 +2070,13 @@
         <v>156</v>
       </c>
       <c r="N89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="5:15">
       <c r="E90" s="1" t="s">
         <v>40</v>
       </c>
@@ -1946,12 +2084,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="5:14">
+    <row r="91" spans="5:15">
       <c r="G91" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="5:14">
+    <row r="92" spans="5:15">
       <c r="G92" s="1" t="s">
         <v>95</v>
       </c>
@@ -1959,12 +2097,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="5:14">
+    <row r="93" spans="5:15">
       <c r="I93" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="5:14">
+    <row r="94" spans="5:15">
       <c r="I94" s="1" t="s">
         <v>96</v>
       </c>
@@ -1975,10 +2113,13 @@
         <v>157</v>
       </c>
       <c r="N94" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="5:14">
+        <v>177</v>
+      </c>
+      <c r="O94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="5:15">
       <c r="I95" s="1" t="s">
         <v>97</v>
       </c>
@@ -1986,12 +2127,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="5:14">
+    <row r="96" spans="5:15">
       <c r="K96" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="7:14">
+    <row r="97" spans="7:15">
       <c r="K97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2002,10 +2143,13 @@
         <v>158</v>
       </c>
       <c r="N97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="7:15">
       <c r="K98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2016,10 +2160,13 @@
         <v>159</v>
       </c>
       <c r="N98" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O98" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="7:15">
       <c r="K99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2030,10 +2177,13 @@
         <v>160</v>
       </c>
       <c r="N99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="7:15">
       <c r="I100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2044,10 +2194,13 @@
         <v>175</v>
       </c>
       <c r="N100" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="7:15">
       <c r="I101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2055,12 +2208,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="7:14">
+    <row r="102" spans="7:15">
       <c r="K102" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="7:14">
+    <row r="103" spans="7:15">
       <c r="K103" s="1" t="s">
         <v>103</v>
       </c>
@@ -2071,10 +2224,13 @@
         <v>161</v>
       </c>
       <c r="N103" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="7:15">
       <c r="K104" s="1" t="s">
         <v>104</v>
       </c>
@@ -2085,10 +2241,13 @@
         <v>162</v>
       </c>
       <c r="N104" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="7:15">
       <c r="K105" s="1" t="s">
         <v>105</v>
       </c>
@@ -2099,10 +2258,13 @@
         <v>163</v>
       </c>
       <c r="N105" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="106" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="7:15">
       <c r="G106" s="1" t="s">
         <v>106</v>
       </c>
@@ -2110,12 +2272,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="7:14">
+    <row r="107" spans="7:15">
       <c r="I107" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="7:14">
+    <row r="108" spans="7:15">
       <c r="I108" s="1" t="s">
         <v>107</v>
       </c>
@@ -2126,10 +2288,13 @@
         <v>164</v>
       </c>
       <c r="N108" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O108" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="7:15">
       <c r="I109" s="1" t="s">
         <v>108</v>
       </c>
@@ -2137,12 +2302,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="7:14">
+    <row r="110" spans="7:15">
       <c r="K110" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="7:14">
+    <row r="111" spans="7:15">
       <c r="K111" s="1" t="s">
         <v>109</v>
       </c>
@@ -2153,10 +2318,13 @@
         <v>165</v>
       </c>
       <c r="N111" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="7:14">
+        <v>177</v>
+      </c>
+      <c r="O111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="7:15">
       <c r="K112" s="1" t="s">
         <v>110</v>
       </c>
@@ -2167,10 +2335,13 @@
         <v>166</v>
       </c>
       <c r="N112" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="9:14">
+        <v>177</v>
+      </c>
+      <c r="O112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="9:15">
       <c r="K113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2181,10 +2352,13 @@
         <v>167</v>
       </c>
       <c r="N113" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" spans="9:14">
+        <v>177</v>
+      </c>
+      <c r="O113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="9:15">
       <c r="I114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2195,10 +2369,13 @@
         <v>176</v>
       </c>
       <c r="N114" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" spans="9:14">
+        <v>177</v>
+      </c>
+      <c r="O114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="9:15">
       <c r="I115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2206,12 +2383,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="9:14">
+    <row r="116" spans="9:15">
       <c r="K116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="9:14">
+    <row r="117" spans="9:15">
       <c r="K117" s="1" t="s">
         <v>114</v>
       </c>
@@ -2222,10 +2399,13 @@
         <v>168</v>
       </c>
       <c r="N117" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" spans="9:14">
+        <v>177</v>
+      </c>
+      <c r="O117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="9:15">
       <c r="K118" s="1" t="s">
         <v>115</v>
       </c>
@@ -2236,10 +2416,13 @@
         <v>169</v>
       </c>
       <c r="N118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="9:14">
+        <v>177</v>
+      </c>
+      <c r="O118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="9:15">
       <c r="K119" s="1" t="s">
         <v>116</v>
       </c>
@@ -2250,7 +2433,10 @@
         <v>170</v>
       </c>
       <c r="N119" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="O119" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/readme/Decisions.xlsx
+++ b/readme/Decisions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.Medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBDDCA0-A625-4E49-BECC-FB05146716B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24823FCD-9F6E-4190-8045-ADC11C151FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
+    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="295">
   <si>
     <t>Question</t>
   </si>
@@ -579,13 +579,355 @@
   </si>
   <si>
     <t>JSON</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>View Count</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Diminished View Count</t>
+  </si>
+  <si>
+    <t>Datetime of Last View</t>
+  </si>
+  <si>
+    <t>How to Match Action</t>
+  </si>
+  <si>
+    <t>Specific Action</t>
+  </si>
+  <si>
+    <t>Current Action</t>
+  </si>
+  <si>
+    <t>One Action</t>
+  </si>
+  <si>
+    <t>Multiple Actions</t>
+  </si>
+  <si>
+    <t>1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.1.2</t>
+  </si>
+  <si>
+    <t>Which one?</t>
+  </si>
+  <si>
+    <t>1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.1.1.2</t>
+  </si>
+  <si>
+    <t>Includes Text</t>
+  </si>
+  <si>
+    <t>1.1.1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.1.1.2.2</t>
+  </si>
+  <si>
+    <t>Includes Campaign Code</t>
+  </si>
+  <si>
+    <t>1.1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.1.2.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.1.2.2.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3.1</t>
+  </si>
+  <si>
+    <t>1.1.1.3.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.3.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3.2.1</t>
+  </si>
+  <si>
+    <t>1.1.1.3.2.2</t>
+  </si>
+  <si>
+    <t>Positive Click Count</t>
+  </si>
+  <si>
+    <t>Diminished Positive Click Count</t>
+  </si>
+  <si>
+    <t>Datetime of Last Positive Click</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>1.1.2.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.2.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2.2</t>
+  </si>
+  <si>
+    <t>1.1.2.3.1</t>
+  </si>
+  <si>
+    <t>1.1.2.3.2</t>
+  </si>
+  <si>
+    <t>1.1.2.2.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.2.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2.2.2</t>
+  </si>
+  <si>
+    <t>1.1.2.3.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2.3.1.2</t>
+  </si>
+  <si>
+    <t>1.1.2.3.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.3.2.2</t>
+  </si>
+  <si>
+    <t>Neutral Click Count</t>
+  </si>
+  <si>
+    <t>Diminished Neutral Click Count</t>
+  </si>
+  <si>
+    <t>Datetime of Last Neutral Click</t>
+  </si>
+  <si>
+    <t>1.1.3.1</t>
+  </si>
+  <si>
+    <t>1.1.3.2</t>
+  </si>
+  <si>
+    <t>1.1.3.3</t>
+  </si>
+  <si>
+    <t>1.1.3.1.1</t>
+  </si>
+  <si>
+    <t>1.1.3.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3.2.1</t>
+  </si>
+  <si>
+    <t>1.1.3.2.2</t>
+  </si>
+  <si>
+    <t>1.1.3.3.1</t>
+  </si>
+  <si>
+    <t>1.1.3.3.2</t>
+  </si>
+  <si>
+    <t>1.1.3.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.3.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.3.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.3.2.1.1</t>
+  </si>
+  <si>
+    <t>1.1.3.2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.3.2.2.2</t>
+  </si>
+  <si>
+    <t>1.1.3.3.1.1</t>
+  </si>
+  <si>
+    <t>1.1.3.3.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3.3.2.1</t>
+  </si>
+  <si>
+    <t>1.1.3.3.2.2</t>
+  </si>
+  <si>
+    <t>Negative Click Count</t>
+  </si>
+  <si>
+    <t>Diminished Negative Click Count</t>
+  </si>
+  <si>
+    <t>Datetime of Last Negative Click</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.4.1</t>
+  </si>
+  <si>
+    <t>1.1.4.2</t>
+  </si>
+  <si>
+    <t>1.1.4.3</t>
+  </si>
+  <si>
+    <t>1.1.4.1.1</t>
+  </si>
+  <si>
+    <t>1.1.4.1.2</t>
+  </si>
+  <si>
+    <t>1.1.4.2.1</t>
+  </si>
+  <si>
+    <t>1.1.4.2.2</t>
+  </si>
+  <si>
+    <t>1.1.4.3.1</t>
+  </si>
+  <si>
+    <t>1.1.4.3.2</t>
+  </si>
+  <si>
+    <t>1.1.4.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.4.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.4.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.4.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.4.2.1.1</t>
+  </si>
+  <si>
+    <t>1.1.4.2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.4.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.4.2.2.2</t>
+  </si>
+  <si>
+    <t>1.1.4.3.1.1</t>
+  </si>
+  <si>
+    <t>1.1.4.3.1.2</t>
+  </si>
+  <si>
+    <t>1.1.4.3.2.1</t>
+  </si>
+  <si>
+    <t>1.1.4.3.2.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,13 +1306,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7BD85-0B31-4842-A1FA-5FC6C6D2E822}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q114" sqref="Q114"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
@@ -988,7 +1330,7 @@
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,12 +1377,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1055,1387 +1397,2296 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G89" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I131" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I138" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I139" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I142" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I143" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I144" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>1.2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="C5" s="1" t="s">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="C6" s="1" t="s">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="E7" s="1" t="s">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="E8" s="1" t="s">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="G9" s="1" t="s">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="G10" s="1" t="s">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M151" t="s">
         <v>117</v>
       </c>
-      <c r="N10" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="G11" s="1" t="s">
+      <c r="N151" t="s">
+        <v>177</v>
+      </c>
+      <c r="O151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M152" t="s">
         <v>118</v>
       </c>
-      <c r="N11" t="s">
-        <v>177</v>
-      </c>
-      <c r="O11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="E12" s="1" t="s">
+      <c r="N152" t="s">
+        <v>177</v>
+      </c>
+      <c r="O152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="G13" s="1" t="s">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="G14" s="1" t="s">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M155" t="s">
         <v>119</v>
       </c>
-      <c r="N14" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="G15" s="1" t="s">
+      <c r="N155" t="s">
+        <v>177</v>
+      </c>
+      <c r="O155" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H156" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M156" t="s">
         <v>120</v>
       </c>
-      <c r="N15" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="E16" s="1" t="s">
+      <c r="N156" t="s">
+        <v>177</v>
+      </c>
+      <c r="O156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
-      <c r="G17" s="1" t="s">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
-      <c r="G18" s="1" t="s">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H159" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M159" t="s">
         <v>121</v>
       </c>
-      <c r="N18" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15">
-      <c r="G19" s="1" t="s">
+      <c r="N159" t="s">
+        <v>177</v>
+      </c>
+      <c r="O159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H160" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M160" t="s">
         <v>128</v>
       </c>
-      <c r="N19" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15">
-      <c r="G20" s="1" t="s">
+      <c r="N160" t="s">
+        <v>177</v>
+      </c>
+      <c r="O160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M161" t="s">
         <v>122</v>
       </c>
-      <c r="N20" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15">
-      <c r="G21" s="1" t="s">
+      <c r="N161" t="s">
+        <v>177</v>
+      </c>
+      <c r="O161" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M162" t="s">
         <v>123</v>
       </c>
-      <c r="N21" t="s">
-        <v>177</v>
-      </c>
-      <c r="O21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15">
-      <c r="E22" s="1" t="s">
+      <c r="N162" t="s">
+        <v>177</v>
+      </c>
+      <c r="O162" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E163" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
-      <c r="G23" s="1" t="s">
+    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
-      <c r="G24" s="1" t="s">
+    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H165" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M165" t="s">
         <v>124</v>
       </c>
-      <c r="N24" t="s">
-        <v>177</v>
-      </c>
-      <c r="O24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15">
-      <c r="G25" s="1" t="s">
+      <c r="N165" t="s">
+        <v>177</v>
+      </c>
+      <c r="O165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M166" t="s">
         <v>125</v>
       </c>
-      <c r="N25" t="s">
-        <v>177</v>
-      </c>
-      <c r="O25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15">
-      <c r="G26" s="1" t="s">
+      <c r="N166" t="s">
+        <v>177</v>
+      </c>
+      <c r="O166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M167" t="s">
         <v>126</v>
       </c>
-      <c r="N26" t="s">
-        <v>177</v>
-      </c>
-      <c r="O26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15">
-      <c r="G27" s="1" t="s">
+      <c r="N167" t="s">
+        <v>177</v>
+      </c>
+      <c r="O167" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M168" t="s">
         <v>127</v>
       </c>
-      <c r="N27" t="s">
-        <v>177</v>
-      </c>
-      <c r="O27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15">
-      <c r="C28" s="1" t="s">
+      <c r="N168" t="s">
+        <v>177</v>
+      </c>
+      <c r="O168" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C169" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
-      <c r="E29" s="1" t="s">
+    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E170" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
-      <c r="E30" s="1" t="s">
+    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E171" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
-      <c r="G31" s="1" t="s">
+    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G172" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
-      <c r="G32" s="1" t="s">
+    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G173" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H173" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="7:15">
-      <c r="I33" s="1" t="s">
+    <row r="174" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I174" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="7:15">
-      <c r="I34" s="1" t="s">
+    <row r="175" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I175" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J175" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M175" t="s">
         <v>129</v>
       </c>
-      <c r="N34" t="s">
-        <v>177</v>
-      </c>
-      <c r="O34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="7:15">
-      <c r="I35" s="1" t="s">
+      <c r="N175" t="s">
+        <v>177</v>
+      </c>
+      <c r="O175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I176" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J176" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="7:15">
-      <c r="K36" s="1" t="s">
+    <row r="177" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K177" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="7:15">
-      <c r="K37" s="1" t="s">
+    <row r="178" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K178" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L178" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M178" t="s">
         <v>130</v>
       </c>
-      <c r="N37" t="s">
-        <v>177</v>
-      </c>
-      <c r="O37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="7:15">
-      <c r="K38" s="1" t="s">
+      <c r="N178" t="s">
+        <v>177</v>
+      </c>
+      <c r="O178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K179" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L179" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M179" t="s">
         <v>131</v>
       </c>
-      <c r="N38" t="s">
-        <v>177</v>
-      </c>
-      <c r="O38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="7:15">
-      <c r="K39" s="1" t="s">
+      <c r="N179" t="s">
+        <v>177</v>
+      </c>
+      <c r="O179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K180" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L180" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M180" t="s">
         <v>132</v>
       </c>
-      <c r="N39" t="s">
-        <v>177</v>
-      </c>
-      <c r="O39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="7:15">
-      <c r="I40" s="1" t="s">
+      <c r="N180" t="s">
+        <v>177</v>
+      </c>
+      <c r="O180" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I181" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J181" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M181" t="s">
         <v>171</v>
       </c>
-      <c r="N40" t="s">
-        <v>177</v>
-      </c>
-      <c r="O40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="7:15">
-      <c r="I41" s="1" t="s">
+      <c r="N181" t="s">
+        <v>177</v>
+      </c>
+      <c r="O181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I182" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J182" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="7:15">
-      <c r="K42" s="1" t="s">
+    <row r="183" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K183" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="7:15">
-      <c r="K43" s="1" t="s">
+    <row r="184" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K184" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L184" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M184" t="s">
         <v>133</v>
       </c>
-      <c r="N43" t="s">
-        <v>177</v>
-      </c>
-      <c r="O43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="7:15">
-      <c r="K44" s="1" t="s">
+      <c r="N184" t="s">
+        <v>177</v>
+      </c>
+      <c r="O184" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K185" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L185" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M185" t="s">
         <v>134</v>
       </c>
-      <c r="N44" t="s">
-        <v>177</v>
-      </c>
-      <c r="O44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="7:15">
-      <c r="K45" s="1" t="s">
+      <c r="N185" t="s">
+        <v>177</v>
+      </c>
+      <c r="O185" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K186" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L186" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M186" t="s">
         <v>135</v>
       </c>
-      <c r="N45" t="s">
-        <v>177</v>
-      </c>
-      <c r="O45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="7:15">
-      <c r="G46" s="1" t="s">
+      <c r="N186" t="s">
+        <v>177</v>
+      </c>
+      <c r="O186" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="187" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G187" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H187" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="7:15">
-      <c r="I47" s="1" t="s">
+    <row r="188" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I188" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="7:15">
-      <c r="I48" s="1" t="s">
+    <row r="189" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I189" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J189" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M189" t="s">
         <v>136</v>
       </c>
-      <c r="N48" t="s">
-        <v>177</v>
-      </c>
-      <c r="O48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="5:15">
-      <c r="I49" s="1" t="s">
+      <c r="N189" t="s">
+        <v>177</v>
+      </c>
+      <c r="O189" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I190" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J190" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="5:15">
-      <c r="K50" s="1" t="s">
+    <row r="191" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K191" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="5:15">
-      <c r="K51" s="1" t="s">
+    <row r="192" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K192" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L192" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M192" t="s">
         <v>137</v>
       </c>
-      <c r="N51" t="s">
-        <v>177</v>
-      </c>
-      <c r="O51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="5:15">
-      <c r="K52" s="1" t="s">
+      <c r="N192" t="s">
+        <v>177</v>
+      </c>
+      <c r="O192" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K193" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L193" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M193" t="s">
         <v>138</v>
       </c>
-      <c r="N52" t="s">
-        <v>177</v>
-      </c>
-      <c r="O52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="5:15">
-      <c r="K53" s="1" t="s">
+      <c r="N193" t="s">
+        <v>177</v>
+      </c>
+      <c r="O193" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K194" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L194" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M194" t="s">
         <v>139</v>
       </c>
-      <c r="N53" t="s">
-        <v>177</v>
-      </c>
-      <c r="O53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="5:15">
-      <c r="I54" s="1" t="s">
+      <c r="N194" t="s">
+        <v>177</v>
+      </c>
+      <c r="O194" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="195" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I195" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J195" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M195" t="s">
         <v>172</v>
       </c>
-      <c r="N54" t="s">
-        <v>177</v>
-      </c>
-      <c r="O54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="5:15">
-      <c r="I55" s="1" t="s">
+      <c r="N195" t="s">
+        <v>177</v>
+      </c>
+      <c r="O195" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I196" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J196" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="5:15">
-      <c r="K56" s="1" t="s">
+    <row r="197" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K197" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="5:15">
-      <c r="K57" s="1" t="s">
+    <row r="198" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K198" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L198" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M198" t="s">
         <v>140</v>
       </c>
-      <c r="N57" t="s">
-        <v>177</v>
-      </c>
-      <c r="O57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="5:15">
-      <c r="K58" s="1" t="s">
+      <c r="N198" t="s">
+        <v>177</v>
+      </c>
+      <c r="O198" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="199" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K199" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L199" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M199" t="s">
         <v>141</v>
       </c>
-      <c r="N58" t="s">
-        <v>177</v>
-      </c>
-      <c r="O58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="5:15">
-      <c r="K59" s="1" t="s">
+      <c r="N199" t="s">
+        <v>177</v>
+      </c>
+      <c r="O199" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K200" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L200" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M200" t="s">
         <v>142</v>
       </c>
-      <c r="N59" t="s">
-        <v>177</v>
-      </c>
-      <c r="O59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="5:15">
-      <c r="E60" s="1" t="s">
+      <c r="N200" t="s">
+        <v>177</v>
+      </c>
+      <c r="O200" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="201" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E201" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F201" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="5:15">
-      <c r="G61" s="1" t="s">
+    <row r="202" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G202" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="5:15">
-      <c r="G62" s="1" t="s">
+    <row r="203" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G203" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H203" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="5:15">
-      <c r="I63" s="1" t="s">
+    <row r="204" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I204" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="5:15">
-      <c r="I64" s="1" t="s">
+    <row r="205" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I205" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J205" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M205" t="s">
         <v>143</v>
       </c>
-      <c r="N64" t="s">
-        <v>177</v>
-      </c>
-      <c r="O64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="7:15">
-      <c r="I65" s="1" t="s">
+      <c r="N205" t="s">
+        <v>177</v>
+      </c>
+      <c r="O205" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="206" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I206" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J206" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="7:15">
-      <c r="K66" s="1" t="s">
+    <row r="207" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K207" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="7:15">
-      <c r="K67" s="1" t="s">
+    <row r="208" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K208" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L208" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M208" t="s">
         <v>144</v>
       </c>
-      <c r="N67" t="s">
-        <v>177</v>
-      </c>
-      <c r="O67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="7:15">
-      <c r="K68" s="1" t="s">
+      <c r="N208" t="s">
+        <v>177</v>
+      </c>
+      <c r="O208" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="209" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K209" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L209" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M209" t="s">
         <v>145</v>
       </c>
-      <c r="N68" t="s">
-        <v>177</v>
-      </c>
-      <c r="O68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="7:15">
-      <c r="K69" s="1" t="s">
+      <c r="N209" t="s">
+        <v>177</v>
+      </c>
+      <c r="O209" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="210" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K210" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L210" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M210" t="s">
         <v>146</v>
       </c>
-      <c r="N69" t="s">
-        <v>177</v>
-      </c>
-      <c r="O69" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="7:15">
-      <c r="I70" s="1" t="s">
+      <c r="N210" t="s">
+        <v>177</v>
+      </c>
+      <c r="O210" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I211" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J211" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M211" t="s">
         <v>173</v>
       </c>
-      <c r="N70" t="s">
-        <v>177</v>
-      </c>
-      <c r="O70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="7:15">
-      <c r="I71" s="1" t="s">
+      <c r="N211" t="s">
+        <v>177</v>
+      </c>
+      <c r="O211" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="212" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I212" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J212" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="7:15">
-      <c r="K72" s="1" t="s">
+    <row r="213" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K213" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="7:15">
-      <c r="K73" s="1" t="s">
+    <row r="214" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K214" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L214" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M214" t="s">
         <v>147</v>
       </c>
-      <c r="N73" t="s">
-        <v>177</v>
-      </c>
-      <c r="O73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="7:15">
-      <c r="K74" s="1" t="s">
+      <c r="N214" t="s">
+        <v>177</v>
+      </c>
+      <c r="O214" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="215" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K215" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L215" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M215" t="s">
         <v>148</v>
       </c>
-      <c r="N74" t="s">
-        <v>177</v>
-      </c>
-      <c r="O74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="7:15">
-      <c r="K75" s="1" t="s">
+      <c r="N215" t="s">
+        <v>177</v>
+      </c>
+      <c r="O215" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K216" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L216" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M216" t="s">
         <v>149</v>
       </c>
-      <c r="N75" t="s">
-        <v>177</v>
-      </c>
-      <c r="O75" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="7:15">
-      <c r="G76" s="1" t="s">
+      <c r="N216" t="s">
+        <v>177</v>
+      </c>
+      <c r="O216" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="217" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G217" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H217" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="7:15">
-      <c r="I77" s="1" t="s">
+    <row r="218" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I218" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="7:15">
-      <c r="I78" s="1" t="s">
+    <row r="219" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I219" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J219" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M219" t="s">
         <v>150</v>
       </c>
-      <c r="N78" t="s">
-        <v>177</v>
-      </c>
-      <c r="O78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="7:15">
-      <c r="I79" s="1" t="s">
+      <c r="N219" t="s">
+        <v>177</v>
+      </c>
+      <c r="O219" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="220" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I220" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J220" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="7:15">
-      <c r="K80" s="1" t="s">
+    <row r="221" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K221" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="5:15">
-      <c r="K81" s="1" t="s">
+    <row r="222" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K222" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L222" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M222" t="s">
         <v>151</v>
       </c>
-      <c r="N81" t="s">
-        <v>177</v>
-      </c>
-      <c r="O81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="5:15">
-      <c r="K82" s="1" t="s">
+      <c r="N222" t="s">
+        <v>177</v>
+      </c>
+      <c r="O222" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="223" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K223" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L223" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M223" t="s">
         <v>152</v>
       </c>
-      <c r="N82" t="s">
-        <v>177</v>
-      </c>
-      <c r="O82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="5:15">
-      <c r="K83" s="1" t="s">
+      <c r="N223" t="s">
+        <v>177</v>
+      </c>
+      <c r="O223" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="224" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K224" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L224" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M224" t="s">
         <v>153</v>
       </c>
-      <c r="N83" t="s">
-        <v>177</v>
-      </c>
-      <c r="O83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="5:15">
-      <c r="I84" s="1" t="s">
+      <c r="N224" t="s">
+        <v>177</v>
+      </c>
+      <c r="O224" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I225" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J225" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M225" t="s">
         <v>174</v>
       </c>
-      <c r="N84" t="s">
-        <v>177</v>
-      </c>
-      <c r="O84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="5:15">
-      <c r="I85" s="1" t="s">
+      <c r="N225" t="s">
+        <v>177</v>
+      </c>
+      <c r="O225" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="226" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I226" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J226" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="5:15">
-      <c r="K86" s="1" t="s">
+    <row r="227" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K227" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="5:15">
-      <c r="K87" s="1" t="s">
+    <row r="228" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K228" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L228" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M228" t="s">
         <v>154</v>
       </c>
-      <c r="N87" t="s">
-        <v>177</v>
-      </c>
-      <c r="O87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="5:15">
-      <c r="K88" s="1" t="s">
+      <c r="N228" t="s">
+        <v>177</v>
+      </c>
+      <c r="O228" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K229" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L229" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M229" t="s">
         <v>155</v>
       </c>
-      <c r="N88" t="s">
-        <v>177</v>
-      </c>
-      <c r="O88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="5:15">
-      <c r="K89" s="1" t="s">
+      <c r="N229" t="s">
+        <v>177</v>
+      </c>
+      <c r="O229" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K230" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L230" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M230" t="s">
         <v>156</v>
       </c>
-      <c r="N89" t="s">
-        <v>177</v>
-      </c>
-      <c r="O89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="5:15">
-      <c r="E90" s="1" t="s">
+      <c r="N230" t="s">
+        <v>177</v>
+      </c>
+      <c r="O230" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="231" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E231" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F231" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="5:15">
-      <c r="G91" s="1" t="s">
+    <row r="232" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G232" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="5:15">
-      <c r="G92" s="1" t="s">
+    <row r="233" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G233" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H233" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="5:15">
-      <c r="I93" s="1" t="s">
+    <row r="234" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I234" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="5:15">
-      <c r="I94" s="1" t="s">
+    <row r="235" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I235" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J235" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M235" t="s">
         <v>157</v>
       </c>
-      <c r="N94" t="s">
-        <v>177</v>
-      </c>
-      <c r="O94" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="5:15">
-      <c r="I95" s="1" t="s">
+      <c r="N235" t="s">
+        <v>177</v>
+      </c>
+      <c r="O235" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="236" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I236" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J236" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="5:15">
-      <c r="K96" s="1" t="s">
+    <row r="237" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K237" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="7:15">
-      <c r="K97" s="1" t="s">
+    <row r="238" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K238" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L238" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M238" t="s">
         <v>158</v>
       </c>
-      <c r="N97" t="s">
-        <v>177</v>
-      </c>
-      <c r="O97" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="7:15">
-      <c r="K98" s="1" t="s">
+      <c r="N238" t="s">
+        <v>177</v>
+      </c>
+      <c r="O238" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="239" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K239" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L239" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M239" t="s">
         <v>159</v>
       </c>
-      <c r="N98" t="s">
-        <v>177</v>
-      </c>
-      <c r="O98" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="7:15">
-      <c r="K99" s="1" t="s">
+      <c r="N239" t="s">
+        <v>177</v>
+      </c>
+      <c r="O239" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="240" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K240" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L240" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M240" t="s">
         <v>160</v>
       </c>
-      <c r="N99" t="s">
-        <v>177</v>
-      </c>
-      <c r="O99" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="7:15">
-      <c r="I100" s="1" t="s">
+      <c r="N240" t="s">
+        <v>177</v>
+      </c>
+      <c r="O240" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="241" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I241" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J241" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M241" t="s">
         <v>175</v>
       </c>
-      <c r="N100" t="s">
-        <v>177</v>
-      </c>
-      <c r="O100" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="7:15">
-      <c r="I101" s="1" t="s">
+      <c r="N241" t="s">
+        <v>177</v>
+      </c>
+      <c r="O241" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="242" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I242" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J242" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="7:15">
-      <c r="K102" s="1" t="s">
+    <row r="243" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K243" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="7:15">
-      <c r="K103" s="1" t="s">
+    <row r="244" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K244" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="L244" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M244" t="s">
         <v>161</v>
       </c>
-      <c r="N103" t="s">
-        <v>177</v>
-      </c>
-      <c r="O103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="104" spans="7:15">
-      <c r="K104" s="1" t="s">
+      <c r="N244" t="s">
+        <v>177</v>
+      </c>
+      <c r="O244" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="245" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K245" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="L245" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M245" t="s">
         <v>162</v>
       </c>
-      <c r="N104" t="s">
-        <v>177</v>
-      </c>
-      <c r="O104" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="105" spans="7:15">
-      <c r="K105" s="1" t="s">
+      <c r="N245" t="s">
+        <v>177</v>
+      </c>
+      <c r="O245" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="246" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K246" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L246" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M246" t="s">
         <v>163</v>
       </c>
-      <c r="N105" t="s">
-        <v>177</v>
-      </c>
-      <c r="O105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="7:15">
-      <c r="G106" s="1" t="s">
+      <c r="N246" t="s">
+        <v>177</v>
+      </c>
+      <c r="O246" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="247" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G247" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H247" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="7:15">
-      <c r="I107" s="1" t="s">
+    <row r="248" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I248" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="7:15">
-      <c r="I108" s="1" t="s">
+    <row r="249" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I249" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J249" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M249" t="s">
         <v>164</v>
       </c>
-      <c r="N108" t="s">
-        <v>177</v>
-      </c>
-      <c r="O108" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="109" spans="7:15">
-      <c r="I109" s="1" t="s">
+      <c r="N249" t="s">
+        <v>177</v>
+      </c>
+      <c r="O249" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="250" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I250" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J250" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="7:15">
-      <c r="K110" s="1" t="s">
+    <row r="251" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K251" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="7:15">
-      <c r="K111" s="1" t="s">
+    <row r="252" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K252" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="L252" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M252" t="s">
         <v>165</v>
       </c>
-      <c r="N111" t="s">
-        <v>177</v>
-      </c>
-      <c r="O111" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="112" spans="7:15">
-      <c r="K112" s="1" t="s">
+      <c r="N252" t="s">
+        <v>177</v>
+      </c>
+      <c r="O252" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="253" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K253" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="L253" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M253" t="s">
         <v>166</v>
       </c>
-      <c r="N112" t="s">
-        <v>177</v>
-      </c>
-      <c r="O112" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="9:15">
-      <c r="K113" s="1" t="s">
+      <c r="N253" t="s">
+        <v>177</v>
+      </c>
+      <c r="O253" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="254" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="K254" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L254" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M254" t="s">
         <v>167</v>
       </c>
-      <c r="N113" t="s">
-        <v>177</v>
-      </c>
-      <c r="O113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="9:15">
-      <c r="I114" s="1" t="s">
+      <c r="N254" t="s">
+        <v>177</v>
+      </c>
+      <c r="O254" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="255" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I255" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J255" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M255" t="s">
         <v>176</v>
       </c>
-      <c r="N114" t="s">
-        <v>177</v>
-      </c>
-      <c r="O114" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="115" spans="9:15">
-      <c r="I115" s="1" t="s">
+      <c r="N255" t="s">
+        <v>177</v>
+      </c>
+      <c r="O255" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="256" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="I256" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J256" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="9:15">
-      <c r="K116" s="1" t="s">
+    <row r="257" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K257" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="9:15">
-      <c r="K117" s="1" t="s">
+    <row r="258" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K258" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="L258" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M258" t="s">
         <v>168</v>
       </c>
-      <c r="N117" t="s">
-        <v>177</v>
-      </c>
-      <c r="O117" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="9:15">
-      <c r="K118" s="1" t="s">
+      <c r="N258" t="s">
+        <v>177</v>
+      </c>
+      <c r="O258" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="259" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K259" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="L259" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M259" t="s">
         <v>169</v>
       </c>
-      <c r="N118" t="s">
-        <v>177</v>
-      </c>
-      <c r="O118" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="9:15">
-      <c r="K119" s="1" t="s">
+      <c r="N259" t="s">
+        <v>177</v>
+      </c>
+      <c r="O259" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="260" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K260" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L260" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M260" t="s">
         <v>170</v>
       </c>
-      <c r="N119" t="s">
-        <v>177</v>
-      </c>
-      <c r="O119" t="s">
+      <c r="N260" t="s">
+        <v>177</v>
+      </c>
+      <c r="O260" t="s">
         <v>177</v>
       </c>
     </row>

--- a/readme/Decisions.xlsx
+++ b/readme/Decisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martynt.Medallia\Documents\eligiblity-rule-helper-vue\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24823FCD-9F6E-4190-8045-ADC11C151FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34BFB19-113E-42A3-8A80-B6302C595225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{48BAF3A2-41C2-4885-B9C2-F29876B92AB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="296">
   <si>
     <t>Question</t>
   </si>
@@ -107,9 +107,6 @@
     <t>1.2.1.1.2</t>
   </si>
   <si>
-    <t>1.2.1.1.4</t>
-  </si>
-  <si>
     <t>1.2.1.2.1</t>
   </si>
   <si>
@@ -921,6 +918,12 @@
   </si>
   <si>
     <t>1.1.4.3.2.2</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>1.2.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB7BD85-0B31-4842-A1FA-5FC6C6D2E822}">
   <dimension ref="A1:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,13 +1371,13 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
         <v>179</v>
-      </c>
-      <c r="O1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1390,920 +1393,1208 @@
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R3">
         <f>COUNTIF(N:N,"done")</f>
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="N11" t="s">
+        <v>294</v>
+      </c>
+      <c r="O11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="N12" t="s">
+        <v>294</v>
+      </c>
+      <c r="O12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>294</v>
+      </c>
+      <c r="O16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="N17" t="s">
+        <v>294</v>
+      </c>
+      <c r="O17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" t="s">
+        <v>294</v>
+      </c>
+      <c r="O22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N23" t="s">
+        <v>294</v>
+      </c>
+      <c r="O23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>294</v>
+      </c>
+      <c r="O27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" t="s">
+        <v>294</v>
+      </c>
+      <c r="O28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="1" t="s">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N33" t="s">
+        <v>294</v>
+      </c>
+      <c r="O33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="N34" t="s">
+        <v>294</v>
+      </c>
+      <c r="O34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J22" s="2" t="s">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J23" s="2" t="s">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I26" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="N46" t="s">
+        <v>294</v>
+      </c>
+      <c r="O46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N47" t="s">
+        <v>294</v>
+      </c>
+      <c r="O47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N51" t="s">
+        <v>294</v>
+      </c>
+      <c r="O51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N52" t="s">
+        <v>294</v>
+      </c>
+      <c r="O52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="1" t="s">
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N57" t="s">
+        <v>294</v>
+      </c>
+      <c r="O57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="N58" t="s">
+        <v>294</v>
+      </c>
+      <c r="O58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J33" s="2" t="s">
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N62" t="s">
+        <v>294</v>
+      </c>
+      <c r="O62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N63" t="s">
+        <v>294</v>
+      </c>
+      <c r="O63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J34" s="2" t="s">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="N68" t="s">
+        <v>294</v>
+      </c>
+      <c r="O68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N69" t="s">
+        <v>294</v>
+      </c>
+      <c r="O69" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N73" t="s">
+        <v>294</v>
+      </c>
+      <c r="O73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N74" t="s">
+        <v>294</v>
+      </c>
+      <c r="O74" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="1" t="s">
+      <c r="D75" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N81" t="s">
+        <v>294</v>
+      </c>
+      <c r="O81" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="N82" t="s">
+        <v>294</v>
+      </c>
+      <c r="O82" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I45" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I46" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J46" s="2" t="s">
+    <row r="85" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N86" t="s">
+        <v>294</v>
+      </c>
+      <c r="O86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N87" t="s">
+        <v>294</v>
+      </c>
+      <c r="O87" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G89" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I47" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J47" s="2" t="s">
+    <row r="91" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G54" s="1" t="s">
+      <c r="N92" t="s">
+        <v>294</v>
+      </c>
+      <c r="O92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G55" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="N93" t="s">
+        <v>294</v>
+      </c>
+      <c r="O93" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I56" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J57" s="2" t="s">
+    <row r="96" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N97" t="s">
+        <v>294</v>
+      </c>
+      <c r="O97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N98" t="s">
+        <v>294</v>
+      </c>
+      <c r="O98" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J58" s="2" t="s">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I61" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I62" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I63" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E64" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G65" s="1" t="s">
+      <c r="N103" t="s">
+        <v>294</v>
+      </c>
+      <c r="O103" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G66" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="N104" t="s">
+        <v>294</v>
+      </c>
+      <c r="O104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I67" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J68" s="2" t="s">
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>294</v>
+      </c>
+      <c r="O108" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N109" t="s">
+        <v>294</v>
+      </c>
+      <c r="O109" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I69" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J69" s="2" t="s">
+    <row r="115" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G71" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I72" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I73" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E76" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E77" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G78" s="1" t="s">
+      <c r="N116" t="s">
+        <v>294</v>
+      </c>
+      <c r="O116" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G79" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="N117" t="s">
+        <v>294</v>
+      </c>
+      <c r="O117" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I80" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J81" s="2" t="s">
+    <row r="120" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N121" t="s">
+        <v>294</v>
+      </c>
+      <c r="O121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N122" t="s">
+        <v>294</v>
+      </c>
+      <c r="O122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I82" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J82" s="2" t="s">
+    <row r="126" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I85" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I86" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I87" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G89" s="1" t="s">
+      <c r="N127" t="s">
+        <v>294</v>
+      </c>
+      <c r="O127" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G90" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="N128" t="s">
+        <v>294</v>
+      </c>
+      <c r="O128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I91" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I92" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J92" s="2" t="s">
+    <row r="131" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I131" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N132" t="s">
+        <v>294</v>
+      </c>
+      <c r="O132" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N133" t="s">
+        <v>294</v>
+      </c>
+      <c r="O133" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I93" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J93" s="2" t="s">
+    <row r="137" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I138" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J138" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G95" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I96" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I97" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I98" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E99" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G100" s="1" t="s">
+      <c r="N138" t="s">
+        <v>294</v>
+      </c>
+      <c r="O138" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I139" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J139" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G101" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H101" s="2" t="s">
+      <c r="N139" t="s">
+        <v>294</v>
+      </c>
+      <c r="O139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I102" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I103" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I104" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G106" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I107" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I108" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I109" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C110" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E111" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E112" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G113" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G114" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I115" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I116" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I117" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G119" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I120" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I121" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I122" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E123" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G124" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G125" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I126" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I127" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I128" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G130" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I131" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I132" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I133" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E134" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G135" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G136" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I137" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I138" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I139" s="1" t="s">
+    <row r="142" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I142" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I143" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G141" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I142" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I143" s="1" t="s">
+      <c r="J143" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N143" t="s">
+        <v>294</v>
+      </c>
+      <c r="O143" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I144" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I144" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="J144" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="N144" t="s">
+        <v>294</v>
+      </c>
+      <c r="O144" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -2347,36 +2638,36 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G151" s="1" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G152" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -2394,36 +2685,36 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G155" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M155" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G156" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M156" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -2441,70 +2732,70 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G159" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M159" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G160" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M160" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G161" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G162" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N162" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O162" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="3:15" x14ac:dyDescent="0.25">
@@ -2522,70 +2813,70 @@
     </row>
     <row r="165" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G165" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G166" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G167" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G168" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M168" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="3:15" x14ac:dyDescent="0.25">
@@ -2603,50 +2894,50 @@
     </row>
     <row r="171" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E171" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G172" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G173" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I174" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I175" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M175" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I176" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>21</v>
@@ -2654,80 +2945,80 @@
     </row>
     <row r="177" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K177" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K178" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K179" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K180" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I181" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I182" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>20</v>
@@ -2735,93 +3026,93 @@
     </row>
     <row r="183" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K183" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K184" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M184" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K185" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K186" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M186" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G187" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I188" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I189" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M189" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N189" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O189" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I190" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>21</v>
@@ -2829,80 +3120,80 @@
     </row>
     <row r="191" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K191" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="192" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K192" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M192" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N192" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O192" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K193" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M193" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K194" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M194" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I195" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M195" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N195" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O195" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I196" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>20</v>
@@ -2910,106 +3201,106 @@
     </row>
     <row r="197" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K197" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K198" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M198" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N198" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O198" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="199" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K199" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M199" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K200" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M200" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N200" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O200" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E201" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G202" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G203" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I204" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I205" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M205" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I206" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>21</v>
@@ -3017,80 +3308,80 @@
     </row>
     <row r="207" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K207" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K208" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M208" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N208" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O208" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K209" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M209" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K210" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M210" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I211" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M211" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N211" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O211" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="212" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I212" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>20</v>
@@ -3098,93 +3389,93 @@
     </row>
     <row r="213" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K213" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="214" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K214" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M214" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N214" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O214" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K215" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M215" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="216" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K216" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N216" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O216" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="217" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G217" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I218" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I219" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M219" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N219" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O219" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="220" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I220" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>21</v>
@@ -3192,80 +3483,80 @@
     </row>
     <row r="221" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K221" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="222" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K222" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N222" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O222" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K223" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N223" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O223" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="224" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K224" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M224" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I225" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M225" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N225" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O225" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I226" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>20</v>
@@ -3273,106 +3564,106 @@
     </row>
     <row r="227" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K227" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K228" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M228" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K229" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M229" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N229" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O229" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K230" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M230" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N230" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O230" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="231" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E231" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G232" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="233" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G233" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="234" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I234" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I235" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M235" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I236" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>21</v>
@@ -3380,80 +3671,80 @@
     </row>
     <row r="237" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K237" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K238" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M238" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N238" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O238" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="239" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K239" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L239" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N239" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O239" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="240" spans="5:15" x14ac:dyDescent="0.25">
       <c r="K240" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N240" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O240" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I241" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M241" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N241" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O241" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="242" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I242" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>20</v>
@@ -3461,93 +3752,93 @@
     </row>
     <row r="243" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K243" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K244" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L244" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M244" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N244" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O244" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K245" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M245" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N245" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O245" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="246" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K246" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L246" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M246" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N246" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O246" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G247" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I248" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I249" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M249" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N249" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O249" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="250" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I250" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>21</v>
@@ -3555,80 +3846,80 @@
     </row>
     <row r="251" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K251" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="252" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K252" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M252" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N252" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O252" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="253" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K253" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L253" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M253" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N253" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O253" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="254" spans="7:15" x14ac:dyDescent="0.25">
       <c r="K254" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M254" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N254" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O254" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I255" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M255" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N255" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O255" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="256" spans="7:15" x14ac:dyDescent="0.25">
       <c r="I256" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>20</v>
@@ -3636,58 +3927,58 @@
     </row>
     <row r="257" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K257" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="258" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K258" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N258" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O258" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K259" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M259" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N259" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O259" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="260" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K260" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N260" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O260" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
